--- a/artefacts/Burndown Chart.xlsx
+++ b/artefacts/Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harry/Documents/Stop Over/Music/23rd of aug/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -242,9 +242,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Actual Tasks Remaining</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -271,10 +268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$13</c:f>
+              <c:f>Sheet1!$E$8:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -292,16 +289,31 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$13</c:f>
+              <c:f>Sheet1!$F$8:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>14.0</c:v>
                 </c:pt>
@@ -319,6 +331,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2084819504"/>
-        <c:axId val="-2085453584"/>
+        <c:axId val="-2124698320"/>
+        <c:axId val="-2127806912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2084819504"/>
+        <c:axId val="-2124698320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -455,12 +482,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085453584"/>
+        <c:crossAx val="-2127806912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085453584"/>
+        <c:axId val="-2127806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16.0"/>
@@ -579,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084819504"/>
+        <c:crossAx val="-2124698320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1529,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1610,6 +1637,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+    </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>20</v>

--- a/artefacts/Burndown Chart.xlsx
+++ b/artefacts/Burndown Chart.xlsx
@@ -229,7 +229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -315,37 +315,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124698320"/>
-        <c:axId val="-2127806912"/>
+        <c:axId val="-2118847200"/>
+        <c:axId val="-2124740272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124698320"/>
+        <c:axId val="-2118847200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -446,6 +446,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -482,15 +483,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127806912"/>
+        <c:crossAx val="-2124740272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127806912"/>
+        <c:axId val="-2124740272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16.0"/>
+          <c:max val="35.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -606,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124698320"/>
+        <c:crossAx val="-2118847200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1557,7 +1558,7 @@
   <dimension ref="E5:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
@@ -1594,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
@@ -1602,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
@@ -1610,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
@@ -1618,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
@@ -1626,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
@@ -1634,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
@@ -1642,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
@@ -1650,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
@@ -1658,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
@@ -1666,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
@@ -1674,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">

--- a/artefacts/Burndown Chart.xlsx
+++ b/artefacts/Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harry/Documents/Stop Over/Music/23rd of aug/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -229,7 +229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -242,9 +242,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Actual Tasks Remaining</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -271,10 +268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$13</c:f>
+              <c:f>Sheet1!$E$8:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -292,33 +289,63 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$13</c:f>
+              <c:f>Sheet1!$F$8:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2084819504"/>
-        <c:axId val="-2085453584"/>
+        <c:axId val="-2118847200"/>
+        <c:axId val="-2124740272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2084819504"/>
+        <c:axId val="-2118847200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -419,6 +446,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -455,15 +483,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085453584"/>
+        <c:crossAx val="-2124740272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085453584"/>
+        <c:axId val="-2124740272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16.0"/>
+          <c:max val="35.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -579,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084819504"/>
+        <c:crossAx val="-2118847200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1529,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
@@ -1567,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
@@ -1575,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
@@ -1583,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
@@ -1591,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
@@ -1599,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
@@ -1607,7 +1635,47 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">

--- a/artefacts/Burndown Chart.xlsx
+++ b/artefacts/Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harry/Documents/Stop Over/Music/23rd of aug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harry/Documents/GitHub/IFB299/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -268,10 +268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$18</c:f>
+              <c:f>Sheet1!$E$8:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -304,16 +304,46 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$18</c:f>
+              <c:f>Sheet1!$F$8:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>34.0</c:v>
                 </c:pt>
@@ -346,6 +376,36 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,11 +420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118847200"/>
-        <c:axId val="-2124740272"/>
+        <c:axId val="-2127672864"/>
+        <c:axId val="-2125978688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118847200"/>
+        <c:axId val="-2127672864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -483,12 +543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124740272"/>
+        <c:crossAx val="-2125978688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124740272"/>
+        <c:axId val="-2125978688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -607,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118847200"/>
+        <c:crossAx val="-2127672864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1555,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F26"/>
+  <dimension ref="E5:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1678,12 +1738,84 @@
         <v>29</v>
       </c>
     </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+    </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28">
         <v>20</v>
       </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="F28">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/artefacts/Burndown Chart.xlsx
+++ b/artefacts/Burndown Chart.xlsx
@@ -119,7 +119,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Smart City Sprint</a:t>
+              <a:t>Smart City Release</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -217,7 +217,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -229,7 +229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -268,10 +268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$28</c:f>
+              <c:f>Sheet1!$E$8:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -334,78 +334,204 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$28</c:f>
+              <c:f>Sheet1!$F$8:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>29.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
+                <c:pt idx="36">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,14 +546,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127672864"/>
-        <c:axId val="-2125978688"/>
+        <c:axId val="-2094326160"/>
+        <c:axId val="-2094251296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127672864"/>
+        <c:axId val="-2094326160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20.0"/>
+          <c:max val="40.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -543,15 +669,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125978688"/>
+        <c:crossAx val="-2094251296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125978688"/>
+        <c:axId val="-2094251296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35.0"/>
+          <c:max val="58.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -667,7 +793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127672864"/>
+        <c:crossAx val="-2094326160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1615,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F28"/>
+  <dimension ref="E5:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1752,7 @@
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -1634,188 +1760,440 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
+        <f>G8+24</f>
+        <v>58</v>
+      </c>
+      <c r="G8">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
+        <f>G9+24</f>
+        <v>58</v>
+      </c>
+      <c r="G9">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
+        <f t="shared" ref="F10:F28" si="0">G10+24</f>
+        <v>58</v>
+      </c>
+      <c r="G10">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G12">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G13">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G14">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G15">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>8</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>9</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G17">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>11</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G19">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>12</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G20">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>13</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G21">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E22">
         <v>14</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G22">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E23">
         <v>15</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>16</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>17</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G25">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>18</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E27">
         <v>19</v>
       </c>
       <c r="F27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>31</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>32</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>33</v>
+      </c>
+      <c r="F41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>35</v>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>36</v>
+      </c>
+      <c r="F44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>38</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>41</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
